--- a/Data/claudia_ma.xlsx
+++ b/Data/claudia_ma.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\defr001\OneDrive - WageningenUR\defesa_claudia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5868086476d0c9e0/Documents/Projeto_Claudia/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0ECC81DD-AD79-4041-ABF7-565FD8CC2C4A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="10_ncr:100000_{0ECC81DD-AD79-4041-ABF7-565FD8CC2C4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AAC35EC8-BCAC-40E7-81DA-ED9008B0F099}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496" tabRatio="609" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="609" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prevalencia-metaanalise" sheetId="20" r:id="rId1"/>
@@ -452,7 +452,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -468,12 +468,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,7 +499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -567,9 +561,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -894,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF936DF-EB11-412E-AC63-D00669AE68B9}">
   <dimension ref="A1:H243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G106" sqref="G106"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:G105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -903,10 +894,10 @@
     <col min="1" max="1" width="14.44140625" style="7" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" style="7" customWidth="1"/>
     <col min="3" max="3" width="18" style="16" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" style="7" customWidth="1"/>
     <col min="5" max="5" width="13.5546875" style="7" customWidth="1"/>
     <col min="6" max="6" width="14.109375" style="13" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" style="24" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" style="23" customWidth="1"/>
     <col min="8" max="8" width="29.44140625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="10"/>
   </cols>
@@ -951,13 +942,13 @@
         <v>2</v>
       </c>
       <c r="E2" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>35</v>
@@ -977,13 +968,13 @@
         <v>5</v>
       </c>
       <c r="E3" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>36</v>
@@ -1003,13 +994,13 @@
         <v>6</v>
       </c>
       <c r="E4" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="12">
-        <v>1</v>
-      </c>
-      <c r="G4" s="23">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G4" s="22">
+        <v>0</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>37</v>
@@ -1029,13 +1020,13 @@
         <v>1</v>
       </c>
       <c r="E5" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>38</v>
@@ -1055,13 +1046,13 @@
         <v>1</v>
       </c>
       <c r="E6" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>39</v>
@@ -1081,13 +1072,13 @@
         <v>5</v>
       </c>
       <c r="E7" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>40</v>
@@ -1107,13 +1098,13 @@
         <v>5</v>
       </c>
       <c r="E8" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>41</v>
@@ -1133,13 +1124,13 @@
         <v>1</v>
       </c>
       <c r="E9" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>42</v>
@@ -1159,13 +1150,13 @@
         <v>5</v>
       </c>
       <c r="E10" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>43</v>
@@ -1185,13 +1176,13 @@
         <v>2</v>
       </c>
       <c r="E11" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>44</v>
@@ -1211,13 +1202,13 @@
         <v>1</v>
       </c>
       <c r="E12" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>45</v>
@@ -1237,13 +1228,13 @@
         <v>5</v>
       </c>
       <c r="E13" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="12">
-        <v>1</v>
-      </c>
-      <c r="G13" s="23">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G13" s="22">
+        <v>0</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>46</v>
@@ -1263,13 +1254,13 @@
         <v>3</v>
       </c>
       <c r="E14" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>47</v>
@@ -1289,13 +1280,13 @@
         <v>6</v>
       </c>
       <c r="E15" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>48</v>
@@ -1315,13 +1306,13 @@
         <v>6</v>
       </c>
       <c r="E16" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>49</v>
@@ -1341,13 +1332,13 @@
         <v>4</v>
       </c>
       <c r="E17" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>50</v>
@@ -1367,13 +1358,13 @@
         <v>6</v>
       </c>
       <c r="E18" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>51</v>
@@ -1393,13 +1384,13 @@
         <v>5</v>
       </c>
       <c r="E19" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>52</v>
@@ -1419,13 +1410,13 @@
         <v>4</v>
       </c>
       <c r="E20" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>53</v>
@@ -1445,13 +1436,13 @@
         <v>6</v>
       </c>
       <c r="E21" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>54</v>
@@ -1471,13 +1462,13 @@
         <v>2</v>
       </c>
       <c r="E22" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>55</v>
@@ -1497,13 +1488,13 @@
         <v>6</v>
       </c>
       <c r="E23" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>56</v>
@@ -1523,13 +1514,13 @@
         <v>6</v>
       </c>
       <c r="E24" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" s="8" t="s">
         <v>57</v>
@@ -1549,13 +1540,13 @@
         <v>6</v>
       </c>
       <c r="E25" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>58</v>
@@ -1575,13 +1566,13 @@
         <v>4</v>
       </c>
       <c r="E26" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="8" t="s">
         <v>59</v>
@@ -1601,13 +1592,13 @@
         <v>5</v>
       </c>
       <c r="E27" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" s="8" t="s">
         <v>129</v>
@@ -1627,13 +1618,13 @@
         <v>5</v>
       </c>
       <c r="E28" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" s="12">
-        <v>1</v>
-      </c>
-      <c r="G28" s="23">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G28" s="22">
+        <v>0</v>
       </c>
       <c r="H28" s="8" t="s">
         <v>60</v>
@@ -1653,13 +1644,13 @@
         <v>3</v>
       </c>
       <c r="E29" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H29" s="8" t="s">
         <v>61</v>
@@ -1679,13 +1670,13 @@
         <v>5</v>
       </c>
       <c r="E30" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>62</v>
@@ -1705,13 +1696,13 @@
         <v>6</v>
       </c>
       <c r="E31" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" s="8" t="s">
         <v>63</v>
@@ -1731,13 +1722,13 @@
         <v>6</v>
       </c>
       <c r="E32" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="8" t="s">
         <v>64</v>
@@ -1757,13 +1748,13 @@
         <v>5</v>
       </c>
       <c r="E33" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" s="8" t="s">
         <v>65</v>
@@ -1783,13 +1774,13 @@
         <v>5</v>
       </c>
       <c r="E34" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" s="8" t="s">
         <v>66</v>
@@ -1809,13 +1800,13 @@
         <v>5</v>
       </c>
       <c r="E35" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" s="8" t="s">
         <v>67</v>
@@ -1835,13 +1826,13 @@
         <v>2</v>
       </c>
       <c r="E36" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36" s="8" t="s">
         <v>68</v>
@@ -1861,13 +1852,13 @@
         <v>3</v>
       </c>
       <c r="E37" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" s="12">
-        <v>1</v>
-      </c>
-      <c r="G37" s="23">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G37" s="22">
+        <v>0</v>
       </c>
       <c r="H37" s="8" t="s">
         <v>69</v>
@@ -1887,13 +1878,13 @@
         <v>1</v>
       </c>
       <c r="E38" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38" s="8" t="s">
         <v>39</v>
@@ -1913,13 +1904,13 @@
         <v>1</v>
       </c>
       <c r="E39" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39" s="8" t="s">
         <v>70</v>
@@ -1939,13 +1930,13 @@
         <v>1</v>
       </c>
       <c r="E40" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H40" s="8" t="s">
         <v>70</v>
@@ -1965,13 +1956,13 @@
         <v>1</v>
       </c>
       <c r="E41" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H41" s="8" t="s">
         <v>70</v>
@@ -1991,13 +1982,13 @@
         <v>6</v>
       </c>
       <c r="E42" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42" s="8" t="s">
         <v>71</v>
@@ -2017,13 +2008,13 @@
         <v>1</v>
       </c>
       <c r="E43" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" s="8" t="s">
         <v>72</v>
@@ -2043,13 +2034,13 @@
         <v>3</v>
       </c>
       <c r="E44" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44" s="8" t="s">
         <v>73</v>
@@ -2069,13 +2060,13 @@
         <v>2</v>
       </c>
       <c r="E45" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" s="8" t="s">
         <v>74</v>
@@ -2095,13 +2086,13 @@
         <v>5</v>
       </c>
       <c r="E46" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" s="8" t="s">
         <v>75</v>
@@ -2121,13 +2112,13 @@
         <v>2</v>
       </c>
       <c r="E47" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H47" s="8" t="s">
         <v>76</v>
@@ -2147,13 +2138,13 @@
         <v>3</v>
       </c>
       <c r="E48" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" s="8" t="s">
         <v>77</v>
@@ -2173,13 +2164,13 @@
         <v>2</v>
       </c>
       <c r="E49" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" s="8" t="s">
         <v>78</v>
@@ -2199,13 +2190,13 @@
         <v>2</v>
       </c>
       <c r="E50" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G50" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" s="8" t="s">
         <v>79</v>
@@ -2225,13 +2216,13 @@
         <v>6</v>
       </c>
       <c r="E51" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H51" s="8" t="s">
         <v>17</v>
@@ -2251,13 +2242,13 @@
         <v>1</v>
       </c>
       <c r="E52" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H52" s="8" t="s">
         <v>80</v>
@@ -2277,13 +2268,13 @@
         <v>6</v>
       </c>
       <c r="E53" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H53" s="8" t="s">
         <v>81</v>
@@ -2303,13 +2294,13 @@
         <v>6</v>
       </c>
       <c r="E54" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" s="8" t="s">
         <v>82</v>
@@ -2329,13 +2320,13 @@
         <v>6</v>
       </c>
       <c r="E55" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H55" s="8" t="s">
         <v>17</v>
@@ -2355,13 +2346,13 @@
         <v>4</v>
       </c>
       <c r="E56" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F56" s="12">
-        <v>1</v>
-      </c>
-      <c r="G56" s="23">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G56" s="22">
+        <v>0</v>
       </c>
       <c r="H56" s="8" t="s">
         <v>83</v>
@@ -2381,13 +2372,13 @@
         <v>6</v>
       </c>
       <c r="E57" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" s="8" t="s">
         <v>84</v>
@@ -2407,13 +2398,13 @@
         <v>5</v>
       </c>
       <c r="E58" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F58" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" s="8" t="s">
         <v>85</v>
@@ -2433,13 +2424,13 @@
         <v>6</v>
       </c>
       <c r="E59" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F59" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H59" s="8" t="s">
         <v>86</v>
@@ -2459,13 +2450,13 @@
         <v>6</v>
       </c>
       <c r="E60" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F60" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" s="8" t="s">
         <v>87</v>
@@ -2485,13 +2476,13 @@
         <v>6</v>
       </c>
       <c r="E61" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" s="8" t="s">
         <v>88</v>
@@ -2511,13 +2502,13 @@
         <v>1</v>
       </c>
       <c r="E62" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H62" s="8" t="s">
         <v>63</v>
@@ -2537,13 +2528,13 @@
         <v>1</v>
       </c>
       <c r="E63" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H63" s="8" t="s">
         <v>89</v>
@@ -2563,13 +2554,13 @@
         <v>6</v>
       </c>
       <c r="E64" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H64" s="8" t="s">
         <v>90</v>
@@ -2589,13 +2580,13 @@
         <v>3</v>
       </c>
       <c r="E65" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G65" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" s="8" t="s">
         <v>91</v>
@@ -2615,13 +2606,13 @@
         <v>5</v>
       </c>
       <c r="E66" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" s="8" t="s">
         <v>92</v>
@@ -2641,13 +2632,13 @@
         <v>5</v>
       </c>
       <c r="E67" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H67" s="8" t="s">
         <v>93</v>
@@ -2667,13 +2658,13 @@
         <v>5</v>
       </c>
       <c r="E68" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H68" s="8" t="s">
         <v>94</v>
@@ -2693,13 +2684,13 @@
         <v>1</v>
       </c>
       <c r="E69" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H69" s="8" t="s">
         <v>95</v>
@@ -2719,13 +2710,13 @@
         <v>1</v>
       </c>
       <c r="E70" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H70" s="8" t="s">
         <v>95</v>
@@ -2745,13 +2736,13 @@
         <v>6</v>
       </c>
       <c r="E71" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F71" s="12">
-        <v>1</v>
-      </c>
-      <c r="G71" s="23">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G71" s="22">
+        <v>0</v>
       </c>
       <c r="H71" s="8" t="s">
         <v>96</v>
@@ -2771,13 +2762,13 @@
         <v>5</v>
       </c>
       <c r="E72" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F72" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" s="8" t="s">
         <v>97</v>
@@ -2797,13 +2788,13 @@
         <v>5</v>
       </c>
       <c r="E73" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H73" s="8" t="s">
         <v>98</v>
@@ -2823,13 +2814,13 @@
         <v>5</v>
       </c>
       <c r="E74" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H74" s="8" t="s">
         <v>99</v>
@@ -2849,13 +2840,13 @@
         <v>4</v>
       </c>
       <c r="E75" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F75" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G75" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" s="8" t="s">
         <v>100</v>
@@ -2875,13 +2866,13 @@
         <v>2</v>
       </c>
       <c r="E76" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" s="8" t="s">
         <v>101</v>
@@ -2901,13 +2892,13 @@
         <v>2</v>
       </c>
       <c r="E77" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" s="8" t="s">
         <v>23</v>
@@ -2927,13 +2918,13 @@
         <v>5</v>
       </c>
       <c r="E78" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F78" s="12">
-        <v>1</v>
-      </c>
-      <c r="G78" s="23">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G78" s="22">
+        <v>0</v>
       </c>
       <c r="H78" s="8" t="s">
         <v>130</v>
@@ -2953,13 +2944,13 @@
         <v>1</v>
       </c>
       <c r="E79" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H79" s="8" t="s">
         <v>102</v>
@@ -2979,13 +2970,13 @@
         <v>5</v>
       </c>
       <c r="E80" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H80" s="8" t="s">
         <v>103</v>
@@ -3005,13 +2996,13 @@
         <v>5</v>
       </c>
       <c r="E81" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F81" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81" s="8" t="s">
         <v>104</v>
@@ -3031,13 +3022,13 @@
         <v>4</v>
       </c>
       <c r="E82" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" s="8" t="s">
         <v>105</v>
@@ -3057,13 +3048,13 @@
         <v>6</v>
       </c>
       <c r="E83" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F83" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" s="8" t="s">
         <v>64</v>
@@ -3083,13 +3074,13 @@
         <v>6</v>
       </c>
       <c r="E84" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G84" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84" s="8" t="s">
         <v>106</v>
@@ -3109,13 +3100,13 @@
         <v>4</v>
       </c>
       <c r="E85" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F85" s="12">
-        <v>1</v>
-      </c>
-      <c r="G85" s="23">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G85" s="22">
+        <v>0</v>
       </c>
       <c r="H85" s="8" t="s">
         <v>107</v>
@@ -3135,13 +3126,13 @@
         <v>1</v>
       </c>
       <c r="E86" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F86" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H86" s="8" t="s">
         <v>108</v>
@@ -3161,13 +3152,13 @@
         <v>1</v>
       </c>
       <c r="E87" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H87" s="8" t="s">
         <v>109</v>
@@ -3187,13 +3178,13 @@
         <v>5</v>
       </c>
       <c r="E88" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H88" s="8" t="s">
         <v>110</v>
@@ -3213,13 +3204,13 @@
         <v>4</v>
       </c>
       <c r="E89" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F89" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" s="8" t="s">
         <v>111</v>
@@ -3239,13 +3230,13 @@
         <v>6</v>
       </c>
       <c r="E90" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F90" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H90" s="8" t="s">
         <v>112</v>
@@ -3265,13 +3256,13 @@
         <v>1</v>
       </c>
       <c r="E91" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G91" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" s="8" t="s">
         <v>113</v>
@@ -3291,13 +3282,13 @@
         <v>6</v>
       </c>
       <c r="E92" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F92" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G92" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92" s="8" t="s">
         <v>114</v>
@@ -3317,13 +3308,13 @@
         <v>5</v>
       </c>
       <c r="E93" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" s="8" t="s">
         <v>115</v>
@@ -3343,13 +3334,13 @@
         <v>4</v>
       </c>
       <c r="E94" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F94" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94" s="8" t="s">
         <v>116</v>
@@ -3369,13 +3360,13 @@
         <v>3</v>
       </c>
       <c r="E95" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G95" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H95" s="8" t="s">
         <v>117</v>
@@ -3395,13 +3386,13 @@
         <v>5</v>
       </c>
       <c r="E96" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F96" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G96" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96" s="8" t="s">
         <v>118</v>
@@ -3421,13 +3412,13 @@
         <v>5</v>
       </c>
       <c r="E97" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F97" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G97" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" s="8" t="s">
         <v>119</v>
@@ -3447,13 +3438,13 @@
         <v>4</v>
       </c>
       <c r="E98" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F98" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G98" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" s="8" t="s">
         <v>120</v>
@@ -3473,13 +3464,13 @@
         <v>6</v>
       </c>
       <c r="E99" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F99" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G99" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" s="8" t="s">
         <v>121</v>
@@ -3499,13 +3490,13 @@
         <v>6</v>
       </c>
       <c r="E100" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G100" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H100" s="8" t="s">
         <v>122</v>
@@ -3525,13 +3516,13 @@
         <v>5</v>
       </c>
       <c r="E101" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F101" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G101" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H101" s="8" t="s">
         <v>123</v>
@@ -3551,13 +3542,13 @@
         <v>6</v>
       </c>
       <c r="E102" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F102" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G102" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102" s="8" t="s">
         <v>124</v>
@@ -3577,13 +3568,13 @@
         <v>5</v>
       </c>
       <c r="E103" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G103" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103" s="8" t="s">
         <v>125</v>
@@ -3603,13 +3594,13 @@
         <v>6</v>
       </c>
       <c r="E104" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F104" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G104" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104" s="8" t="s">
         <v>126</v>
@@ -3629,13 +3620,13 @@
         <v>6</v>
       </c>
       <c r="E105" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F105" s="12">
-        <v>1</v>
-      </c>
-      <c r="G105" s="23">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G105" s="22">
+        <v>0</v>
       </c>
       <c r="H105" s="8" t="s">
         <v>127</v>
@@ -3683,7 +3674,7 @@
       <c r="D129" s="7"/>
       <c r="E129" s="7"/>
       <c r="F129" s="13"/>
-      <c r="G129" s="24"/>
+      <c r="G129" s="23"/>
       <c r="H129" s="1"/>
     </row>
     <row r="155" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -3693,7 +3684,7 @@
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
       <c r="F155" s="13"/>
-      <c r="G155" s="24"/>
+      <c r="G155" s="23"/>
       <c r="H155" s="1"/>
     </row>
     <row r="189" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -3703,7 +3694,7 @@
       <c r="D189" s="7"/>
       <c r="E189" s="7"/>
       <c r="F189" s="13"/>
-      <c r="G189" s="24"/>
+      <c r="G189" s="23"/>
       <c r="H189" s="1"/>
     </row>
     <row r="219" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -3713,7 +3704,7 @@
       <c r="D219" s="7"/>
       <c r="E219" s="7"/>
       <c r="F219" s="13"/>
-      <c r="G219" s="24"/>
+      <c r="G219" s="23"/>
       <c r="H219" s="1"/>
     </row>
     <row r="233" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -3723,7 +3714,7 @@
       <c r="D233" s="7"/>
       <c r="E233" s="7"/>
       <c r="F233" s="13"/>
-      <c r="G233" s="24"/>
+      <c r="G233" s="23"/>
       <c r="H233" s="1"/>
     </row>
     <row r="243" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -3733,7 +3724,7 @@
       <c r="D243" s="7"/>
       <c r="E243" s="7"/>
       <c r="F243" s="13"/>
-      <c r="G243" s="24"/>
+      <c r="G243" s="23"/>
       <c r="H243" s="1"/>
     </row>
   </sheetData>
@@ -3804,7 +3795,7 @@
       <c r="D2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="24">
         <v>1</v>
       </c>
     </row>
@@ -3821,7 +3812,7 @@
       <c r="D3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="25"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="18">
@@ -3836,7 +3827,7 @@
       <c r="D4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="25"/>
+      <c r="E4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
@@ -3851,7 +3842,7 @@
       <c r="D5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="25"/>
+      <c r="E5" s="24"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
@@ -3864,7 +3855,7 @@
       <c r="D6" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="24">
         <v>2</v>
       </c>
       <c r="H6" s="3"/>
@@ -3881,7 +3872,7 @@
       <c r="D7" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="25"/>
+      <c r="E7" s="24"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
@@ -3896,7 +3887,7 @@
       <c r="D8" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="25"/>
+      <c r="E8" s="24"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
@@ -3909,7 +3900,7 @@
       <c r="D9" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="25"/>
+      <c r="E9" s="24"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
@@ -3941,6 +3932,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010083C77CA76B7D0446BB899F3A656AEE52" ma:contentTypeVersion="8" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="be801ebef6c11357ee5a647eb1a76931">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1afc395e-5c08-4774-b7de-04879a34a3b6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3a79a2c10345719b81b6432715777ce7" ns3:_="">
     <xsd:import namespace="1afc395e-5c08-4774-b7de-04879a34a3b6"/>
@@ -4112,22 +4118,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9B2B5A8-833E-431D-BC89-5B63E0463437}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1afc395e-5c08-4774-b7de-04879a34a3b6"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B3265FE-48C6-4750-96A6-6D78F7D219C2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CCECE4B-EA15-452C-A1B3-F8DA64C37311}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4143,28 +4158,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B3265FE-48C6-4750-96A6-6D78F7D219C2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9B2B5A8-833E-431D-BC89-5B63E0463437}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1afc395e-5c08-4774-b7de-04879a34a3b6"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Data/claudia_ma.xlsx
+++ b/Data/claudia_ma.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5868086476d0c9e0/Documents/Projeto_Claudia/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="10_ncr:100000_{0ECC81DD-AD79-4041-ABF7-565FD8CC2C4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AAC35EC8-BCAC-40E7-81DA-ED9008B0F099}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="10_ncr:100000_{0ECC81DD-AD79-4041-ABF7-565FD8CC2C4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{27BC6609-EBE4-4F8E-8113-3CEB376B31AB}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="609" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="609" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prevalencia-metaanalise" sheetId="20" r:id="rId1"/>
@@ -883,10 +883,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF936DF-EB11-412E-AC63-D00669AE68B9}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H243"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G105"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -928,7 +929,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>280</v>
       </c>
@@ -954,7 +955,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>120</v>
       </c>
@@ -980,7 +981,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>18782</v>
       </c>
@@ -1006,7 +1007,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>60</v>
       </c>
@@ -1032,7 +1033,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>260</v>
       </c>
@@ -1058,7 +1059,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>144</v>
       </c>
@@ -1084,7 +1085,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>15</v>
       </c>
@@ -1110,7 +1111,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>60</v>
       </c>
@@ -1136,7 +1137,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>240</v>
       </c>
@@ -1162,7 +1163,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>450</v>
       </c>
@@ -1188,7 +1189,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>30</v>
       </c>
@@ -1214,7 +1215,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>286</v>
       </c>
@@ -1240,7 +1241,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>40</v>
       </c>
@@ -1266,7 +1267,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>90</v>
       </c>
@@ -1292,7 +1293,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>466</v>
       </c>
@@ -1318,7 +1319,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>382</v>
       </c>
@@ -1344,7 +1345,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>106</v>
       </c>
@@ -1370,7 +1371,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>27</v>
       </c>
@@ -1396,7 +1397,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>87</v>
       </c>
@@ -1422,7 +1423,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>400</v>
       </c>
@@ -1448,7 +1449,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>108</v>
       </c>
@@ -1474,7 +1475,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>300</v>
       </c>
@@ -1500,7 +1501,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>198</v>
       </c>
@@ -1526,7 +1527,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>205</v>
       </c>
@@ -1552,7 +1553,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>99</v>
       </c>
@@ -1578,7 +1579,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>55</v>
       </c>
@@ -1604,7 +1605,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>498</v>
       </c>
@@ -1630,7 +1631,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>40</v>
       </c>
@@ -1656,7 +1657,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>175</v>
       </c>
@@ -1682,7 +1683,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>38</v>
       </c>
@@ -1708,7 +1709,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>100</v>
       </c>
@@ -1734,7 +1735,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>30</v>
       </c>
@@ -1760,7 +1761,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>50</v>
       </c>
@@ -1786,7 +1787,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>134</v>
       </c>
@@ -1812,7 +1813,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>1765</v>
       </c>
@@ -1838,7 +1839,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>40</v>
       </c>
@@ -1864,7 +1865,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>260</v>
       </c>
@@ -1890,7 +1891,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>135</v>
       </c>
@@ -1916,7 +1917,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>135</v>
       </c>
@@ -1942,7 +1943,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>135</v>
       </c>
@@ -1968,7 +1969,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <v>180</v>
       </c>
@@ -1994,7 +1995,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>24</v>
       </c>
@@ -2020,7 +2021,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <v>1295</v>
       </c>
@@ -2046,7 +2047,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>400</v>
       </c>
@@ -2072,7 +2073,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
         <v>324</v>
       </c>
@@ -2098,7 +2099,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>227</v>
       </c>
@@ -2124,7 +2125,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
         <v>185</v>
       </c>
@@ -2150,7 +2151,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>60</v>
       </c>
@@ -2176,7 +2177,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
         <v>2679</v>
       </c>
@@ -2202,7 +2203,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <v>425</v>
       </c>
@@ -2228,7 +2229,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
         <v>240</v>
       </c>
@@ -2254,7 +2255,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <v>150</v>
       </c>
@@ -2280,7 +2281,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
         <v>200</v>
       </c>
@@ -2306,7 +2307,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <v>425</v>
       </c>
@@ -2332,7 +2333,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
         <v>100</v>
       </c>
@@ -2358,7 +2359,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
         <v>19</v>
       </c>
@@ -2384,7 +2385,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
         <v>41</v>
       </c>
@@ -2410,7 +2411,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
         <v>67</v>
       </c>
@@ -2436,7 +2437,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="8">
         <v>500</v>
       </c>
@@ -2462,7 +2463,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
         <v>96</v>
       </c>
@@ -2488,7 +2489,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="8">
         <v>130</v>
       </c>
@@ -2514,7 +2515,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
         <v>130</v>
       </c>
@@ -2540,7 +2541,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
         <v>160</v>
       </c>
@@ -2566,7 +2567,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="8">
         <v>200</v>
       </c>
@@ -2592,7 +2593,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="8">
         <v>40</v>
       </c>
@@ -2618,7 +2619,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="8">
         <v>52</v>
       </c>
@@ -2644,7 +2645,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="8">
         <v>65</v>
       </c>
@@ -2670,7 +2671,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="8">
         <v>8813</v>
       </c>
@@ -2696,7 +2697,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="8">
         <v>1200</v>
       </c>
@@ -2722,7 +2723,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="8">
         <v>422</v>
       </c>
@@ -2748,7 +2749,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="8">
         <v>190</v>
       </c>
@@ -2774,7 +2775,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="8">
         <v>49</v>
       </c>
@@ -2800,7 +2801,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="8">
         <v>30</v>
       </c>
@@ -2826,7 +2827,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
         <v>106</v>
       </c>
@@ -2852,7 +2853,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="8">
         <v>270</v>
       </c>
@@ -2878,7 +2879,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="8">
         <v>300</v>
       </c>
@@ -2904,7 +2905,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="8">
         <v>200</v>
       </c>
@@ -2930,7 +2931,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="8">
         <v>452</v>
       </c>
@@ -2956,7 +2957,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="8">
         <v>120</v>
       </c>
@@ -2982,7 +2983,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="8">
         <v>200</v>
       </c>
@@ -3008,7 +3009,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="8">
         <v>50</v>
       </c>
@@ -3034,7 +3035,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="8">
         <v>150</v>
       </c>
@@ -3060,7 +3061,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="8">
         <v>100</v>
       </c>
@@ -3086,7 +3087,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="8">
         <v>288</v>
       </c>
@@ -3112,7 +3113,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="8">
         <v>48</v>
       </c>
@@ -3138,7 +3139,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="8">
         <v>193</v>
       </c>
@@ -3164,7 +3165,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="8">
         <v>120</v>
       </c>
@@ -3190,7 +3191,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="8">
         <v>45</v>
       </c>
@@ -3216,7 +3217,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="8">
         <v>162</v>
       </c>
@@ -3242,7 +3243,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="8">
         <v>60</v>
       </c>
@@ -3268,7 +3269,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="8">
         <v>200</v>
       </c>
@@ -3294,7 +3295,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="8">
         <v>27</v>
       </c>
@@ -3320,7 +3321,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="8">
         <v>86</v>
       </c>
@@ -3346,7 +3347,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="8">
         <v>42</v>
       </c>
@@ -3372,7 +3373,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="8">
         <v>102</v>
       </c>
@@ -3398,7 +3399,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="8">
         <v>240</v>
       </c>
@@ -3424,7 +3425,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="8">
         <v>100</v>
       </c>
@@ -3450,7 +3451,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="8">
         <v>152</v>
       </c>
@@ -3476,7 +3477,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="8">
         <v>90</v>
       </c>
@@ -3502,7 +3503,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="8">
         <v>38</v>
       </c>
@@ -3528,7 +3529,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="8">
         <v>18</v>
       </c>
@@ -3554,7 +3555,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="8">
         <v>35</v>
       </c>
@@ -3580,7 +3581,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="8">
         <v>200</v>
       </c>
@@ -3728,7 +3729,13 @@
       <c r="H243" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H105" xr:uid="{5088B3B2-F2F0-4DED-9450-E73F36DA2B7D}"/>
+  <autoFilter ref="A1:H105" xr:uid="{5088B3B2-F2F0-4DED-9450-E73F36DA2B7D}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="Jansen et al., 2018"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3932,18 +3939,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4119,6 +4126,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B3265FE-48C6-4750-96A6-6D78F7D219C2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9B2B5A8-833E-431D-BC89-5B63E0463437}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -4130,14 +4145,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B3265FE-48C6-4750-96A6-6D78F7D219C2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
